--- a/biology/Mycologie/Polypore_du_mélèze/Polypore_du_mélèze.xlsx
+++ b/biology/Mycologie/Polypore_du_mélèze/Polypore_du_mélèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%A9l%C3%A8ze</t>
+          <t>Polypore_du_mélèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fomitopsis officinalis, Laricifomes officinalis
-Le Polypore du mélèze[1] (Fomitopsis officinalis, syn. Laricifomes officinalis) est une espèce de champignons de la famille des Fomitopsidaceae. Il est également connu sous le nom de polypore officinale.
+Le Polypore du mélèze (Fomitopsis officinalis, syn. Laricifomes officinalis) est une espèce de champignons de la famille des Fomitopsidaceae. Il est également connu sous le nom de polypore officinale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%A9l%C3%A8ze</t>
+          <t>Polypore_du_mélèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chapeau de ce champignon prend une forme semblable à celle d'un sabot[2] puis prend une forme cylindrique en grandissant. Il est de couleur blanche à gris-noir[2]. Ses pores sont arrondis et anguleux[3].
-Il peut atteindre 65 cm en grandissant. Il produit une nouvelle couche chaque année. Cette accumulation peut atteindre les 70 strates[2].
-Certains spécimens peuvent vivre jusqu'à 60 ans et atteindre les 10 kg[4].
-Sa chaire est d'aspect blanche et molle. Elle est de texture farineuse et a un goût amère[5].
-Le polypore officinale est un agent de la pourriture brune[6] et parfois désignée comme une pourriture rouge[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau de ce champignon prend une forme semblable à celle d'un sabot puis prend une forme cylindrique en grandissant. Il est de couleur blanche à gris-noir. Ses pores sont arrondis et anguleux.
+Il peut atteindre 65 cm en grandissant. Il produit une nouvelle couche chaque année. Cette accumulation peut atteindre les 70 strates.
+Certains spécimens peuvent vivre jusqu'à 60 ans et atteindre les 10 kg.
+Sa chaire est d'aspect blanche et molle. Elle est de texture farineuse et a un goût amère.
+Le polypore officinale est un agent de la pourriture brune et parfois désignée comme une pourriture rouge.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%A9l%C3%A8ze</t>
+          <t>Polypore_du_mélèze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme son nom l'indique, le polypore du mélèze se développe sur des mélèzes malades ou blessés. C'est un champignon xylophage[5].
-En Europe, il est présent dans les zones alpines au climat continentale, majoritairement en Suisse et en France[5]. Le polypore officinal a également pu être observé en Allemagne, en Roumanie, en Pologne, en Lituanie et en Grèce à de rares occasions[5].
-En Amérique, certains spécimens ont été signalés sur des mélèzes dans les Rocheuses. En Asie, on retrouve parfois ce champignon en Russie, plus précisément en Sibérie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, le polypore du mélèze se développe sur des mélèzes malades ou blessés. C'est un champignon xylophage.
+En Europe, il est présent dans les zones alpines au climat continentale, majoritairement en Suisse et en France. Le polypore officinal a également pu être observé en Allemagne, en Roumanie, en Pologne, en Lituanie et en Grèce à de rares occasions.
+En Amérique, certains spécimens ont été signalés sur des mélèzes dans les Rocheuses. En Asie, on retrouve parfois ce champignon en Russie, plus précisément en Sibérie.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%A9l%C3%A8ze</t>
+          <t>Polypore_du_mélèze</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Histoire et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le polypore du mélèze était utilisé à des fins officinales dans la médecine traditionnelle et a ainsi parfois été dénommé "agaric des médecins"[8],[9]. 
-En Europe, il était notamment administré comme remède contre la sudation nocturne dans le cadre du traitement des patients atteints de la tuberculose[8], ainsi que comme purgatif[10].
-Il était utilisé comme antiémétique et contre la toux spasmodique en Inde[10]. En Amérique du Nord, il a parfois pu être utilisé dans le cadre de traitement contre la gonorrhée[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le polypore du mélèze était utilisé à des fins officinales dans la médecine traditionnelle et a ainsi parfois été dénommé "agaric des médecins",. 
+En Europe, il était notamment administré comme remède contre la sudation nocturne dans le cadre du traitement des patients atteints de la tuberculose, ainsi que comme purgatif.
+Il était utilisé comme antiémétique et contre la toux spasmodique en Inde. En Amérique du Nord, il a parfois pu être utilisé dans le cadre de traitement contre la gonorrhée.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%A9l%C3%A8ze</t>
+          <t>Polypore_du_mélèze</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,11 +631,13 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le polypore du mélèze est un champignon considéré comme rare. Selon certaines hypothèses, la rareté de l'espèce serait due à son importante récolte à des fins médicinales jusqu'au XXe siècle[11].
-La raréfaction de ce polypore est aussi due à l'abattage des arbres sur lesquels il se développe, soit car ils sont malades, soit dans le cadre de la construction de pistes de ski[2],[5].
-La lente croissance de ce champignon le rend très vulnérable à ces différentes pressions[5].  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le polypore du mélèze est un champignon considéré comme rare. Selon certaines hypothèses, la rareté de l'espèce serait due à son importante récolte à des fins médicinales jusqu'au XXe siècle.
+La raréfaction de ce polypore est aussi due à l'abattage des arbres sur lesquels il se développe, soit car ils sont malades, soit dans le cadre de la construction de pistes de ski,.
+La lente croissance de ce champignon le rend très vulnérable à ces différentes pressions.  
 </t>
         </is>
       </c>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%A9l%C3%A8ze</t>
+          <t>Polypore_du_mélèze</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,11 +666,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Fomitopsis officinalis (Vill.) Bondartsev &amp; Singer[12].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus officinalis Vill.[12].
-Fomitopsis officinalis a pour synonymes[12] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Fomitopsis officinalis (Vill.) Bondartsev &amp; Singer.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus officinalis Vill..
+Fomitopsis officinalis a pour synonymes :
 Agaricum officinale (Vill.) Donk
 Boletus agaricum Pollini
 Boletus laricis F.Rubel
